--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusDataWithTwoEqualsStudentEmails.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusDataWithTwoEqualsStudentEmails.xlsx
@@ -36,9 +36,6 @@
     <t>Session ID</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>User full name</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>12:36:54.292606</t>
+  </si>
+  <si>
+    <t>User email</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,67 +623,67 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -699,22 +699,22 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="15">
@@ -724,10 +724,10 @@
         <v>44718</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="6">
         <v>7</v>
@@ -742,25 +742,25 @@
         <v>39069</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="6">
         <v>75</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="6">
         <v>13</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="V2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -776,22 +776,22 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="17">
@@ -801,10 +801,10 @@
         <v>44718</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="L3" s="10">
         <v>12</v>
@@ -819,25 +819,25 @@
         <v>39069</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="10">
         <v>75</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="10">
         <v>13</v>
       </c>
       <c r="T3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="V3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -853,22 +853,22 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="15">
@@ -878,10 +878,10 @@
         <v>44718</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="L4" s="6">
         <v>17</v>
@@ -896,25 +896,25 @@
         <v>39069</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="6">
         <v>75</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="6">
         <v>13</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="V4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -930,22 +930,22 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="19">
@@ -955,10 +955,10 @@
         <v>44718</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="L5" s="10">
         <v>5</v>
@@ -973,25 +973,25 @@
         <v>39069</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="10">
         <v>75</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="10">
         <v>13</v>
       </c>
       <c r="T5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="V5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -1007,22 +1007,22 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="20">
@@ -1032,10 +1032,10 @@
         <v>44718</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="L6" s="6">
         <v>6</v>
@@ -1050,25 +1050,25 @@
         <v>39069</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="6">
         <v>75</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="6">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="V6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
